--- a/biology/Zoologie/Euoplos/Euoplos.xlsx
+++ b/biology/Zoologie/Euoplos/Euoplos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euoplos est un genre d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euoplos est un genre d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 03/06/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 03/06/2023) :
 Euoplos bairnsdale (Main, 1995)
 Euoplos ballidu (Main, 2000)
 Euoplos booloumba Wilson &amp; Rix, 2021
@@ -597,10 +613,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Rainbow en 1914 dans les Aviculariidae. Il est placé en synonymie avec Arbanitis par Main en 1985[2]. Il est relevé de synonymie par Raven et Wishart en 2006[3].
-Albaniana[4], Armadalia[4], Bancroftiana[4] et Tambouriniana[4] ont été placés en synonymie par Raven et Wishart en 2006[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Rainbow en 1914 dans les Aviculariidae. Il est placé en synonymie avec Arbanitis par Main en 1985. Il est relevé de synonymie par Raven et Wishart en 2006.
+Albaniana, Armadalia, Bancroftiana et Tambouriniana ont été placés en synonymie par Raven et Wishart en 2006.
 </t>
         </is>
       </c>
@@ -629,7 +647,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rainbow, 1914 : « Studies in the Australian Araneidae. No. 6. The Terretelariae. » Records of the Australian Museum, vol. 10, p. 187-270 (texte intégral).</t>
         </is>
